--- a/Practicum/Second/Test_web_app.xlsx
+++ b/Practicum/Second/Test_web_app.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Practicum\Second\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Prac\WirmanJO\Practicum\Second\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F63E1-AA85-4EF5-B4E8-B5EEEDD58259}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83474541-35D3-4494-804D-94EC48C58D4E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1813,12 +1813,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1827,109 +1875,61 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7133,13 +7133,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="147" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="147" t="s">
         <v>226</v>
       </c>
       <c r="D4" s="108">
@@ -7148,16 +7148,16 @@
       <c r="E4" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="156" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="157"/>
+      <c r="H4" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="142"/>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="F5" s="142"/>
       <c r="G5" s="142"/>
-      <c r="H5" s="149"/>
+      <c r="H5" s="159"/>
       <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7186,41 +7186,41 @@
       </c>
       <c r="F6" s="143"/>
       <c r="G6" s="143"/>
-      <c r="H6" s="150"/>
+      <c r="H6" s="155"/>
       <c r="I6" s="143"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="165" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="147" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="145">
+      <c r="D7" s="163">
         <v>1</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="E7" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="153" t="s">
+      <c r="F7" s="148" t="s">
         <v>235</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="141" t="s">
+      <c r="H7" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="155" t="s">
+      <c r="I7" s="162" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="142"/>
-      <c r="B8" s="149"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="142"/>
       <c r="D8" s="143"/>
       <c r="E8" s="143"/>
@@ -7231,12 +7231,12 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="142"/>
-      <c r="B9" s="149"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="142"/>
-      <c r="D9" s="145">
+      <c r="D9" s="163">
         <v>2</v>
       </c>
-      <c r="E9" s="146" t="s">
+      <c r="E9" s="164" t="s">
         <v>231</v>
       </c>
       <c r="F9" s="142"/>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="142"/>
-      <c r="B10" s="149"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="142"/>
       <c r="D10" s="143"/>
       <c r="E10" s="143"/>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="11" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="143"/>
-      <c r="B11" s="150"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="143"/>
       <c r="D11" s="111"/>
       <c r="E11" s="112"/>
@@ -7267,37 +7267,37 @@
       <c r="I11" s="143"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="165" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="145">
+      <c r="D12" s="163">
         <v>1</v>
       </c>
-      <c r="E12" s="152" t="s">
+      <c r="E12" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="153" t="s">
+      <c r="F12" s="148" t="s">
         <v>240</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="141" t="s">
+      <c r="H12" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="144" t="s">
+      <c r="I12" s="150" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="142"/>
-      <c r="B13" s="149"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="142"/>
       <c r="D13" s="143"/>
       <c r="E13" s="140"/>
@@ -7308,12 +7308,12 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="142"/>
-      <c r="B14" s="149"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="142"/>
-      <c r="D14" s="145">
+      <c r="D14" s="163">
         <v>2</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="164" t="s">
         <v>231</v>
       </c>
       <c r="F14" s="142"/>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="142"/>
-      <c r="B15" s="149"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="142"/>
       <c r="D15" s="143"/>
       <c r="E15" s="143"/>
@@ -7334,7 +7334,7 @@
     </row>
     <row r="16" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="143"/>
-      <c r="B16" s="150"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="143"/>
       <c r="D16" s="113"/>
       <c r="E16" s="112"/>
@@ -7344,31 +7344,31 @@
       <c r="I16" s="143"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="151" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="152" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="163">
+      <c r="D17" s="153">
         <v>1</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="154" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="G17" s="166" t="s">
+      <c r="G17" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="H17" s="158" t="s">
+      <c r="H17" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="159" t="s">
+      <c r="I17" s="144" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       <c r="B18" s="142"/>
       <c r="C18" s="142"/>
       <c r="D18" s="143"/>
-      <c r="E18" s="150"/>
+      <c r="E18" s="155"/>
       <c r="F18" s="142"/>
       <c r="G18" s="142"/>
       <c r="H18" s="142"/>
@@ -7429,13 +7429,13 @@
       <c r="I21" s="143"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="147" t="s">
+      <c r="A22" s="145" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="147" t="s">
         <v>251</v>
       </c>
       <c r="D22" s="118">
@@ -7444,16 +7444,16 @@
       <c r="E22" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="148" t="s">
         <v>252</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="H22" s="158" t="s">
+      <c r="H22" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="144" t="s">
+      <c r="I22" s="150" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8471,6 +8471,36 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="I17:I21"/>
     <mergeCell ref="A22:A26"/>
@@ -8487,36 +8517,6 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="G17:G21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -8603,13 +8603,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="164" t="s">
         <v>257</v>
       </c>
       <c r="D4" s="108">
@@ -8618,16 +8618,16 @@
       <c r="E4" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="156" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="169"/>
+      <c r="H4" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="182"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="142"/>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="F5" s="142"/>
       <c r="G5" s="142"/>
-      <c r="H5" s="149"/>
+      <c r="H5" s="159"/>
       <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8656,17 +8656,17 @@
       </c>
       <c r="F6" s="143"/>
       <c r="G6" s="143"/>
-      <c r="H6" s="150"/>
+      <c r="H6" s="155"/>
       <c r="I6" s="143"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="184" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="164" t="s">
         <v>261</v>
       </c>
       <c r="D7" s="108">
@@ -8675,16 +8675,16 @@
       <c r="E7" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="171" t="s">
+      <c r="G7" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="172" t="s">
+      <c r="I7" s="170" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="F8" s="142"/>
       <c r="G8" s="142"/>
-      <c r="H8" s="149"/>
+      <c r="H8" s="159"/>
       <c r="I8" s="142"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8713,7 +8713,7 @@
       <c r="E9" s="110"/>
       <c r="F9" s="142"/>
       <c r="G9" s="142"/>
-      <c r="H9" s="149"/>
+      <c r="H9" s="159"/>
       <c r="I9" s="142"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8724,7 +8724,7 @@
       <c r="E10" s="110"/>
       <c r="F10" s="142"/>
       <c r="G10" s="142"/>
-      <c r="H10" s="149"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="142"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8735,17 +8735,17 @@
       <c r="E11" s="110"/>
       <c r="F11" s="143"/>
       <c r="G11" s="143"/>
-      <c r="H11" s="150"/>
+      <c r="H11" s="155"/>
       <c r="I11" s="143"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="145" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="167" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="164" t="s">
         <v>267</v>
       </c>
       <c r="D12" s="108">
@@ -8754,16 +8754,16 @@
       <c r="E12" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="164" t="s">
         <v>268</v>
       </c>
-      <c r="G12" s="171" t="s">
+      <c r="G12" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="173" t="s">
+      <c r="H12" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="172" t="s">
+      <c r="I12" s="170" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8828,13 +8828,13 @@
       <c r="I16" s="143"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="167" t="s">
         <v>269</v>
       </c>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="164" t="s">
         <v>267</v>
       </c>
       <c r="D17" s="111">
@@ -8843,16 +8843,16 @@
       <c r="E17" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="146" t="s">
+      <c r="F17" s="164" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="171" t="s">
+      <c r="G17" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="H17" s="156" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="169"/>
+      <c r="H17" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="182"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="142"/>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="F18" s="142"/>
       <c r="G18" s="142"/>
-      <c r="H18" s="149"/>
+      <c r="H18" s="159"/>
       <c r="I18" s="142"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="F19" s="142"/>
       <c r="G19" s="142"/>
-      <c r="H19" s="149"/>
+      <c r="H19" s="159"/>
       <c r="I19" s="142"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8892,7 +8892,7 @@
       <c r="E20" s="110"/>
       <c r="F20" s="142"/>
       <c r="G20" s="142"/>
-      <c r="H20" s="149"/>
+      <c r="H20" s="159"/>
       <c r="I20" s="142"/>
     </row>
     <row r="21" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8903,17 +8903,17 @@
       <c r="E21" s="110"/>
       <c r="F21" s="143"/>
       <c r="G21" s="143"/>
-      <c r="H21" s="150"/>
+      <c r="H21" s="155"/>
       <c r="I21" s="143"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="147" t="s">
+      <c r="A22" s="145" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="167" t="s">
         <v>271</v>
       </c>
-      <c r="C22" s="146" t="s">
+      <c r="C22" s="164" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="111">
@@ -8922,16 +8922,16 @@
       <c r="E22" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="F22" s="146" t="s">
+      <c r="F22" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="G22" s="171" t="s">
+      <c r="G22" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="H22" s="167" t="s">
+      <c r="H22" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="172" t="s">
+      <c r="I22" s="170" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="F23" s="142"/>
       <c r="G23" s="142"/>
-      <c r="H23" s="149"/>
+      <c r="H23" s="159"/>
       <c r="I23" s="142"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="F24" s="142"/>
       <c r="G24" s="142"/>
-      <c r="H24" s="149"/>
+      <c r="H24" s="159"/>
       <c r="I24" s="142"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="F25" s="142"/>
       <c r="G25" s="142"/>
-      <c r="H25" s="149"/>
+      <c r="H25" s="159"/>
       <c r="I25" s="142"/>
     </row>
     <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8992,17 +8992,17 @@
       </c>
       <c r="F26" s="143"/>
       <c r="G26" s="143"/>
-      <c r="H26" s="150"/>
+      <c r="H26" s="155"/>
       <c r="I26" s="143"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="145" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="164" t="s">
         <v>267</v>
       </c>
       <c r="D27" s="111">
@@ -9011,16 +9011,16 @@
       <c r="E27" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="F27" s="146" t="s">
+      <c r="F27" s="164" t="s">
         <v>278</v>
       </c>
-      <c r="G27" s="171" t="s">
+      <c r="G27" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="H27" s="167" t="s">
+      <c r="H27" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="144" t="s">
+      <c r="I27" s="150" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="F28" s="142"/>
       <c r="G28" s="142"/>
-      <c r="H28" s="149"/>
+      <c r="H28" s="159"/>
       <c r="I28" s="142"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="F29" s="142"/>
       <c r="G29" s="142"/>
-      <c r="H29" s="149"/>
+      <c r="H29" s="159"/>
       <c r="I29" s="142"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F30" s="142"/>
       <c r="G30" s="142"/>
-      <c r="H30" s="149"/>
+      <c r="H30" s="159"/>
       <c r="I30" s="142"/>
     </row>
     <row r="31" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9081,17 +9081,17 @@
       </c>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
-      <c r="H31" s="150"/>
+      <c r="H31" s="155"/>
       <c r="I31" s="143"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="164" t="s">
         <v>267</v>
       </c>
       <c r="D32" s="111">
@@ -9100,16 +9100,16 @@
       <c r="E32" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="F32" s="146" t="s">
+      <c r="F32" s="164" t="s">
         <v>282</v>
       </c>
-      <c r="G32" s="171" t="s">
+      <c r="G32" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="167" t="s">
+      <c r="H32" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="172" t="s">
+      <c r="I32" s="170" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="F33" s="142"/>
       <c r="G33" s="142"/>
-      <c r="H33" s="149"/>
+      <c r="H33" s="159"/>
       <c r="I33" s="142"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="F34" s="142"/>
       <c r="G34" s="142"/>
-      <c r="H34" s="149"/>
+      <c r="H34" s="159"/>
       <c r="I34" s="142"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="F35" s="142"/>
       <c r="G35" s="142"/>
-      <c r="H35" s="149"/>
+      <c r="H35" s="159"/>
       <c r="I35" s="142"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9166,19 +9166,19 @@
       <c r="E36" s="110"/>
       <c r="F36" s="143"/>
       <c r="G36" s="143"/>
-      <c r="H36" s="150"/>
+      <c r="H36" s="155"/>
       <c r="I36" s="143"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="181"/>
+      <c r="A37" s="176"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="172"/>
       <c r="D37" s="123"/>
       <c r="E37" s="124"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="184"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="175"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="140"/>
@@ -9225,15 +9225,15 @@
       <c r="I41" s="140"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="168"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="177"/>
+      <c r="A42" s="176"/>
+      <c r="B42" s="178"/>
+      <c r="C42" s="179"/>
       <c r="D42" s="127"/>
       <c r="E42" s="128"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="140"/>
@@ -9280,15 +9280,15 @@
       <c r="I46" s="140"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="168"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="177"/>
+      <c r="A47" s="176"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="179"/>
       <c r="D47" s="127"/>
       <c r="E47" s="128"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="175"/>
-      <c r="I47" s="175"/>
+      <c r="F47" s="179"/>
+      <c r="G47" s="180"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="177"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="140"/>
@@ -9335,15 +9335,15 @@
       <c r="I51" s="140"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="168"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="177"/>
+      <c r="A52" s="176"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="179"/>
       <c r="D52" s="127"/>
       <c r="E52" s="132"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="175"/>
-      <c r="I52" s="175"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="177"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="140"/>
@@ -9390,15 +9390,15 @@
       <c r="I56" s="140"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="168"/>
-      <c r="B57" s="176"/>
-      <c r="C57" s="177"/>
+      <c r="A57" s="176"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="179"/>
       <c r="D57" s="127"/>
       <c r="E57" s="132"/>
-      <c r="F57" s="177"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="175"/>
-      <c r="I57" s="175"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="180"/>
+      <c r="H57" s="177"/>
+      <c r="I57" s="177"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="140"/>
@@ -10415,82 +10415,6 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="H37:H41"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
     <mergeCell ref="H27:H31"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="A57:A61"/>
@@ -10507,6 +10431,82 @@
     <mergeCell ref="C57:C61"/>
     <mergeCell ref="F57:F61"/>
     <mergeCell ref="G57:G61"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="H57:H61"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="H37:H41"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="G27:G31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
